--- a/loaded_influencer_data/_strvrfire_/_strvrfire__video.xlsx
+++ b/loaded_influencer_data/_strvrfire_/_strvrfire__video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,45 +506,45 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7455713848352361750</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10800</v>
+        <v>12200</v>
       </c>
       <c r="C2" t="n">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ೀ Velvety lips looking using only one product👀. I didn’t know they were tints so I was a bit shocked when I saw that they left a stain</t>
+          <t>단 하나의 제품을 사용하여 보는 벨베티 입술👀. 틴트인 줄 몰랐기 때문에 얼룩이 남는 것을 보고 조금 충격을 받았습니다. 상품명 : 페리페라-잉크 벨벳 틴트💖 내 예스 스타일 코드 사용: STRAFIRE26 🌟</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.12962962962963</v>
+        <v>4.057377049180328</v>
       </c>
       <c r="I2" t="n">
-        <v>3.62962962962963</v>
+        <v>3.606557377049181</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>0.4508196721311476</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8524590163934427</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,16 +558,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7430395536043167008</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="C3" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D3" t="n">
         <v>53</v>
@@ -580,23 +580,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>My daily makeup routine🎀💗 #grmwmakeup #routinemakeup #dailymakeuproutine</t>
+          <t>나의 데일리 메이크업 루틴🎀💗#grmwmakeup #routinemakeup #dailymakeuproutine #wonyoungism</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>27.94701986754967</v>
+        <v>27.39018087855297</v>
       </c>
       <c r="I3" t="n">
-        <v>20.9271523178808</v>
+        <v>20.54263565891473</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.019867549668874</v>
+        <v>6.847545219638243</v>
       </c>
       <c r="L3" t="n">
-        <v>1.324503311258278</v>
+        <v>1.291989664082687</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,16 +610,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7420411163969621281</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="C4" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -632,23 +632,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Save this post for your next yesstyle order 🌸💗🎀 #yesstyle #yesstylecode #yesstylecodes #yesstyleinfluencers #kbeauty</t>
+          <t>다음 예스 스타일 주문을 위해 이 게시물을 저장하십시오. 🌸💗🎀#yesstyle #yesstylecode #yesstylecodes</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>23.13915857605178</v>
+        <v>22.99212598425197</v>
       </c>
       <c r="I4" t="n">
-        <v>22.00647249190938</v>
+        <v>21.88976377952756</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.132686084142395</v>
+        <v>1.102362204724409</v>
       </c>
       <c r="L4" t="n">
-        <v>1.456310679611651</v>
+        <v>1.417322834645669</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -662,69 +662,69 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_strvrfire_/video/7486435020131863830</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_strvrfire_/video/7489421146647989526</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>364</v>
+        <v>850</v>
       </c>
       <c r="C5" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>These came just in time cuz the uni stress skin is catching me😭. Celimax has the best products a dark spot routine without irritate the skin. I will be testing this for two weeks and give you guys my honest review &lt;3.</t>
+          <t>방금 초안에서 이 비디오를 찾았으니 메이크업 튜토리얼을 즐기세요💕 예스스타일 코드: STRAFIRE26#makeupturorial</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>29.12087912087912</v>
+        <v>10.58823529411765</v>
       </c>
       <c r="I5" t="n">
-        <v>21.15384615384615</v>
+        <v>7.647058823529412</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>7.967032967032966</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="L5" t="n">
-        <v>3.571428571428571</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_strvrfire_/video/7486093067024370966</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_strvrfire_/video/7489042891529129238</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>913</v>
+        <v>866</v>
       </c>
       <c r="C6" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -734,1325 +734,1473 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[ro subs]
-Look fresh, buze hidratate si ten revitalizat? Aceste trei produse de la Nature Republic sunt perfecte🥺💞. Masca de fata ofera baza perfecta de machiaj doar in cateva minute, nuanta blushului este minunata peste acest sezon, iar rujul ofera un efect de plumping foarte subtil💓💓.</t>
+          <t>예스스타일 뷰티 추천. . Yesstyle의 Mega 판매 거래를 놓치지 마십시오. 앱을 스크롤하고 있었는데 이제 카트가 가득 찼습니다. D. 4월 7일까지 가능합니다. ♡. 🪷추가 2-5% 할인을 받으려면 체크아웃 시 "STRAFIRE26" 코드를 사용하십시오.</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>11.50054764512596</v>
+        <v>9.584295612009237</v>
       </c>
       <c r="I6" t="n">
-        <v>8.652792990142387</v>
+        <v>6.928406466512701</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.847754654983571</v>
+        <v>2.655889145496536</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9857612267250823</v>
+        <v>1.039260969976905</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_strvrfire_/video/7488020449591332118</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>933</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>♡4월 1일부터 7일까지 예스스타일에서 메가세일♡. Anua, pera, Dasique, Vt Cosmetics 등과 같은 많은 베스트셀러 브랜드는 💗 최대 50% 할인됩니다. 또한 그들은 미스터리 박스도 줄 것입니다!!! 😍 계산대에서 "STRAFIRE26" 코드를 추가하여 2-5% 추가 할인 •</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10.61093247588424</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.038585209003216</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.572347266881029</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.178992497320472</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_strvrfire_/video/7486435020131863830</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>473</v>
+      </c>
+      <c r="C8" t="n">
+        <v>104</v>
+      </c>
+      <c r="D8" t="n">
+        <v>44</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>These came just in time cuz the uni stress skin is catching me😭. Celimax has the best products a dark spot routine without irritate the skin. I will be testing this for two weeks and give you guys my honest review &lt;3. 🛒you can find these on Yesstyle, use my code STRAFIRE26 to save up [Thank you @celimax.global 💗 ] #celimax #celimaxglobal #darkspot #darkspotroutine #skincareunboxing #kbeautyskincare #acneproneskincare #gifted #noniampoule #creatorsearchinsights</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>31.28964059196617</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21.98731501057082</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.302325581395349</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.748414376321353</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_strvrfire_/video/7486093067024370966</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>951</v>
+      </c>
+      <c r="C9" t="n">
+        <v>89</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[로 서브] 산뜻하고 촉촉한 입술과 생기 넘치는 피부로 보이나요? 네이처 리퍼블릭의 이 세 제품은 완벽한 🥺💞. 페이스 마스크는 단 몇 분 만에 완벽한 메이크업 베이스를 제공하며, 이번 시즌에는 파란색의 음영이 멋지며, 립스틱은 매우 은은한 플럼핑 효과를 제공합니다💓💓. 🛒유일한 코드: SOLE1847 [en subs] 산뜻한 룩, 촉촉한 입술, 활력을 되찾은 피부? 네이처 리퍼블릭의 이 세 제품은 완벽한 🥺💞. 페이스 마스크는 단 몇 분 만에 완벽한 메이크업 베이스를 운동하고, 블러셔 쉐이드는 이번 시즌에 놀랍고, 립스틱은 매우 특이한 플럼핑 효과를 💓💓.</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>12.61829652996845</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.358569926393271</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.259726603575184</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8412197686645636</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/photo/7485729396620381462</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>382</v>
-      </c>
-      <c r="C7" t="n">
-        <v>68</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="B10" t="n">
+        <v>414</v>
+      </c>
+      <c r="C10" t="n">
+        <v>73</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>이 제품들은 메이크업을 시작하거나 새로운 것을 시도하고 싶다면 🤭💖. 🛒☁️ 내 코드를 사용하여 할인을 받으십시오.</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>23.91304347826087</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17.6328502415459</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.280193236714976</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.415458937198068</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_strvrfire_/video/7483443847679200534</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>480</v>
+      </c>
+      <c r="C11" t="n">
+        <v>85</v>
+      </c>
+      <c r="D11" t="n">
         <v>25</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>These products are perfect if you just start doing your makeup or you want to try something new🤭💖.
-🛒☁️get this on 𝒀𝒆𝒔𝑺𝒕𝒚𝒍𝒆 use my code 𝑺𝑻𝑹𝑨𝑭𝑰𝑹𝑬𝟐𝟔 for discount</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>24.34554973821989</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17.80104712041885</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.544502617801047</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.356020942408377</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_strvrfire_/video/7483443847679200534</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>480</v>
-      </c>
-      <c r="C8" t="n">
-        <v>85</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>16</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Never pay full price on yesstyle💗 Save this post for later💓
 Save up to 17% off ⋆˚𝜗𝜚˚⋆
 #yesstyle #yesstylecode</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H11" t="n">
         <v>22.91666666666666</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>17.70833333333334</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>5.208333333333334</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L11" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7483081344562547990</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>496</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C12" t="n">
         <v>114</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D12" t="n">
         <v>48</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>12</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Decorating my beauty products: Cinnamoroll theme &gt;•&lt; ᡣ𐭩. If you love Cinnamoroll too Yesstyle already has cuter packaging with him so check them out🩵🩵.</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H12" t="n">
         <v>32.66129032258064</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I12" t="n">
         <v>22.98387096774194</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>9.67741935483871</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L12" t="n">
         <v>2.419354838709677</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/photo/7482069116895939862</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
         <v>557</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>80</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D13" t="n">
         <v>47</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>9</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>. ۫ ꣑ৎ . It’s my first time trying my stubborn eyebrows. It was a really fun experience. The formula it’s really to work with, the only thing is that I stayed with the product 5-6 min which was totally not enough for my eyebrow🥲. Next time I will definitely stay longer.</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>22.80071813285458</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>14.36265709156194</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>8.43806104129264</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L13" t="n">
         <v>1.615798922800718</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7480887529252687126</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>899</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>103</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D14" t="n">
         <v>46</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>16</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Skincare tips to achieve a glowy skin look: always double cleanse 🌙 || using the Anua duo cleansing 🎀.
 🛒You can find these on Yesstyle use my discount code ‘STRAFIRE26’</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H14" t="n">
         <v>16.57397107897664</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>11.45717463848721</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>5.116796440489433</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L14" t="n">
         <v>1.779755283648498</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7480186576430189846</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B15" t="n">
         <v>996</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C15" t="n">
         <v>107</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D15" t="n">
         <v>49</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>18</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>My night time skincare routine and my honest review about Skin1004 products. Some of them are really amazing and I love using all the time, but on the other hand as an acne prone girly sometimes they are a miss😔.</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>15.66265060240964</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>10.7429718875502</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.919678714859438</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L15" t="n">
         <v>1.80722891566265</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7478307490149534998</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B16" t="n">
         <v>1001</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
         <v>132</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
         <v>44</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>18</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>My top three light pink blushes that i always reach for💗. Did you see your favourite? ⋆˚𝜗𝜚˚⋆
 🛒 Yesstyle code: STRAFIRE26</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>17.58241758241758</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>13.18681318681319</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.395604395604396</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L16" t="n">
         <v>1.798201798201798</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7477576463684783382</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B17" t="n">
         <v>943</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C17" t="n">
         <v>141</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D17" t="n">
         <v>51</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>15</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>My top three light pink blushes that i always reach for💗. Did you see your favourite? ⋆˚𝜗𝜚˚⋆
 🛒 Yesstyle code: STRAFIRE26</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>20.36055143160127</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>14.95227995758218</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>5.408271474019088</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L17" t="n">
         <v>1.590668080593849</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7476089537878314262</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B18" t="n">
         <v>999</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>96</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>42</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>8</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Let’s ignore the fact that i didnt know the lyrics🥹 #kbeauty #kbeautymakeup #wonyoungism #kawaiiaesthetic</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>13.81381381381381</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I18" t="n">
         <v>9.60960960960961</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.204204204204204</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L18" t="n">
         <v>0.8008008008008007</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7475696238403357974</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B19" t="n">
         <v>993</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>93</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>36</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>10</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>. ۫ ꣑ৎ . Food for skin? Yes please♥️. If glowing skin was a recipe Skinfood will be the secret ingredient😋🥕.
 🛒You can find these on Yesstyle use my discount code ‘𝑺𝑻𝑹𝑨𝑭𝑰𝑹𝑬𝟐𝟔’</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>12.99093655589124</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>9.365558912386707</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.625377643504532</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L19" t="n">
         <v>1.007049345417925</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7474947806982180118</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B20" t="n">
         <v>1099</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>96</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>61</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>16</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>My favourite cool tone mauve lip combo. I wear this almost everyday and i feel it the only one that really suit me🥺.</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>14.28571428571428</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I20" t="n">
         <v>8.735213830755233</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>5.550500454959054</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L20" t="n">
         <v>1.455868971792539</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7473503189921254678</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B21" t="n">
         <v>1058</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C21" t="n">
         <v>101</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D21" t="n">
         <v>43</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>11</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>. ۫ ꣑ৎ . Skin1004 skincare pr unboxing💕. So excited to try these goodies and I’ll review them sooner!
 🛒You can find these on Yesstyle use my discount code ‘𝑺𝑻𝑹𝑨𝑭𝑰𝑹𝑬𝟐𝟔’</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H21" t="n">
         <v>13.61058601134216</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I21" t="n">
         <v>9.546313799621927</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.064272211720227</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L21" t="n">
         <v>1.039697542533081</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7472749920928189718</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B22" t="n">
         <v>1068</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C22" t="n">
         <v>152</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D22" t="n">
         <v>42</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>16</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Warm tone lippies recommendation🤎 which one do you want to try?🤭
 🛒 YesStyle: STRAFIRE26
 Olive Young: STARFIRE26</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>18.16479400749064</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>14.23220973782771</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.932584269662921</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L22" t="n">
         <v>1.49812734082397</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7472413222725946626</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B23" t="n">
         <v>1663</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C23" t="n">
         <v>129</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D23" t="n">
         <v>42</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>17</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>FlowerKnows Swan ballet eyeshadow palette
 ᯤ ♡ shade: 03 Pink swan🦢🩰
 This palette is too gorgeous isn’t it?😫 ྀིྀིྀིྀིྀི flowerknows code: Starfire26</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>10.28262176788936</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>7.757065544197234</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>2.525556223692123</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L23" t="n">
         <v>1.022248947684907</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7470871671667215638</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>680</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>127</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>41</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>17</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>K-beauty products that feels like childhood nostalgia🥺. From playing with toys to playing with makeup some things never change🧸.</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>24.70588235294118</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>18.67647058823529</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>6.029411764705882</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L24" t="n">
         <v>2.5</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7470112885805518102</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B25" t="n">
         <v>1490</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C25" t="n">
         <v>167</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D25" t="n">
         <v>51</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>18</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Highlighter that shines brighter than stars?? Yes please✨. This shadow palette has the cutest theme and the shades are like twinkling stars hihi🤭</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>14.63087248322148</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>11.20805369127517</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.422818791946309</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L25" t="n">
         <v>1.208053691275168</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7465670008824286486</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B26" t="n">
         <v>1519</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C26" t="n">
         <v>151</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D26" t="n">
         <v>49</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>15</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Anybody said glass skin in a bottle?✨ This essence leaves my skin so glowy and hydrated which is exactly what I always look for. Also the fact that is non-comedogenic✨✨my acne prone skin loves this :)</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H26" t="n">
         <v>13.16655694535879</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I26" t="n">
         <v>9.940750493745885</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.225806451612903</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L26" t="n">
         <v>0.9874917709019092</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7465338940912880918</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
         <v>1088</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C27" t="n">
         <v>142</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D27" t="n">
         <v>48</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>12</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>ও˖ ࣪⊹ 𝐅𝐥𝐨𝐰𝐞𝐫 𝐊𝐧𝐨𝐰𝐬- 𝐒𝐰𝐚𝐧 𝐛𝐚𝐥𝐥𝐞𝐭 𝐯𝐞𝐥𝐯𝐞𝐭 𝐛𝐥𝐮𝐬𝐡𝐞𝐫 ྀིྀིྀིྀིྀིshade: Silky ribbon🎀💕
 You already know that i love baby pink blushes but this one have something in it🥺. The packaging and the details are so gorgeous💓</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>17.46323529411764</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>13.0514705882353</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.411764705882353</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L27" t="n">
         <v>1.102941176470588</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7464987243187408150</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B28" t="n">
         <v>1032</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C28" t="n">
         <v>199</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D28" t="n">
         <v>59</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>22</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Yesstyle skincare and makeup haul💕. Did you spot any of your favs?🤭
 ──── ୨୧ ────
 🛒use my code 𝑺𝑻𝑹𝑨𝑭𝑰𝑹𝑬𝟐𝟔 at checkout</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H28" t="n">
         <v>25</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I28" t="n">
         <v>19.28294573643411</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>5.717054263565891</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L28" t="n">
         <v>2.131782945736434</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7463481821569781014</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B29" t="n">
         <v>558</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C29" t="n">
         <v>121</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D29" t="n">
         <v>58</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>15</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>My favourites brightening products that are actually working on my skin✨. What’s your favourite for glowing skin?🌟</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H29" t="n">
         <v>32.07885304659498</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I29" t="n">
         <v>21.68458781362007</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>10.39426523297491</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L29" t="n">
         <v>2.688172043010753</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7462737978788482326</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B30" t="n">
         <v>1326</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C30" t="n">
         <v>202</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D30" t="n">
         <v>48</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>26</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Swan aesthetic makeup unboxing🦢. I’ve always dreamt of having this FlowerKnows palette and I finally got it🙈🩷</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H30" t="n">
         <v>18.85369532428356</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I30" t="n">
         <v>15.23378582202112</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.619909502262444</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L30" t="n">
         <v>1.96078431372549</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7461630689323044118</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B31" t="n">
         <v>862</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C31" t="n">
         <v>161</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D31" t="n">
         <v>53</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>12</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Touch up essentials from yesstyle. Im literally obsessed with all the products🥺🫶🏼.
 ೀyesstyle code: STRAFIRE26 ೀ</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H31" t="n">
         <v>24.82598607888631</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I31" t="n">
         <v>18.67749419953596</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>6.148491879350348</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L31" t="n">
         <v>1.392111368909513</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-01-19</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/photo/7460123525198728470</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B32" t="n">
         <v>563</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C32" t="n">
         <v>79</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D32" t="n">
         <v>47</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>13</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>I love the products from Mixsoon sm🫶🏼. So here is my personal thoughts about their essences as a sensitive acne-prone girly. Find which one is best for you💕.</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H32" t="n">
         <v>22.38010657193606</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I32" t="n">
         <v>14.03197158081705</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>8.348134991119005</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L32" t="n">
         <v>2.309058614564831</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-01-15</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7458310993991519510</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B33" t="n">
         <v>603</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C33" t="n">
         <v>110</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D33" t="n">
         <v>55</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>11</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>What I recommend you to buy on #yswinterbeauty sale🤭🤭. The deals are up to 50% off!!!😍
 ──── ୨୧ ────
 Use FRESH25+ STRAFIRE26 for up to 15% off; will expire on Jan. 13th!!!💕</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H33" t="n">
         <v>27.36318407960199</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I33" t="n">
         <v>18.24212271973466</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>9.12106135986733</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L33" t="n">
         <v>1.824212271973466</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-01-11</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7457966317551783190</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B34" t="n">
         <v>8635</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C34" t="n">
         <v>332</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D34" t="n">
         <v>48</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>56</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>୨ৎ𝑹𝒐𝒎𝒂𝒏𝒅- 𝒃𝒆𝒕𝒕𝒆𝒓 𝒕𝒉𝒂𝒏 𝒑𝒂𝒍𝒆𝒕𝒕𝒆 ྀིྀིྀིྀིྀིshade: 04 Dusty Fog Garden 🩶
 The best cool toned eyeshadow palette I’ve tried so far🤭. What’s your go-to eyeshadow?👀</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H34" t="n">
         <v>4.400694846554718</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I34" t="n">
         <v>3.844817602779386</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.5558772437753329</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L34" t="n">
         <v>0.6485234510712218</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7457505063221628182</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B35" t="n">
         <v>687</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C35" t="n">
         <v>135</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D35" t="n">
         <v>54</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>10</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>A mini kbeauty haul in a while doesn’t hurt anyone🙂‍↔️💕
 ──── ୨୧ ────
@@ -2060,52 +2208,52 @@
 •Olive Young code: STARFIRE26</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H35" t="n">
         <v>27.51091703056768</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I35" t="n">
         <v>19.65065502183406</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>7.860262008733625</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>1.455604075691412</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7456841098749594902</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B36" t="n">
         <v>819</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C36" t="n">
         <v>136</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D36" t="n">
         <v>73</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>15</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>A mini kbeauty haul in a while doesn’t hurt anyone🙂‍↔️💕
 ──── ୨୧ ────
@@ -2113,887 +2261,786 @@
 •Olive Young code: STARFIRE26</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H36" t="n">
         <v>25.51892551892552</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I36" t="n">
         <v>16.6056166056166</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>8.913308913308914</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L36" t="n">
         <v>1.831501831501832</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-01-07</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7456475953296903447</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B37" t="n">
         <v>2049</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C37" t="n">
         <v>200</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D37" t="n">
         <v>53</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>23</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Is anyone else obsessed with baby pink blushes recently? These are perfect for a soft and dreamy makeup look💖</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H37" t="n">
         <v>12.34748657881894</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I37" t="n">
         <v>9.760858955588091</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>2.586627623230844</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L37" t="n">
         <v>1.122498779892631</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-01-06</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7454976276416269590</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B38" t="n">
         <v>605</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C38" t="n">
         <v>143</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D38" t="n">
         <v>54</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>24</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>༉‧₊˚. Night night skincare routine😴💤. This is how i use retinal to help fading that stubborn dark spots🥲
 Yesstyle code: STRAFIRE26</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H38" t="n">
         <v>32.56198347107438</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I38" t="n">
         <v>23.63636363636364</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>8.925619834710744</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L38" t="n">
         <v>3.966942148760331</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-01-02</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7454198134860827926</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B39" t="n">
         <v>1071</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C39" t="n">
         <v>115</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D39" t="n">
         <v>48</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>12</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>༊*·˚ My favourite kbeauty/cbeauty skincare and makeup picks in 2024 from Yesstyle🤍. My routine changed a lot this year so Im really curious how it will be next year:)</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H39" t="n">
         <v>15.21942110177404</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I39" t="n">
         <v>10.73762838468721</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>4.481792717086835</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L39" t="n">
         <v>1.120448179271709</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-12-30</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7453086855915965718</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B40" t="n">
         <v>2967</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>135</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>53</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>12</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Skin1004 vs Anua: Comparing these two viral brightening serums💕. Stubborn dark spots and acne where?? I can’t see them🤭</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H40" t="n">
         <v>6.336366700370745</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I40" t="n">
         <v>4.550050556117291</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>1.786316144253455</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L40" t="n">
         <v>0.4044489383215369</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-12-27</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/photo/7452702208593792278</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B41" t="n">
         <v>814</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C41" t="n">
         <v>149</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D41" t="n">
         <v>22</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>15</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>The new collection from FlowerKnows is so cute🥺💖. They never disappoint when releasing a new collection. The photos are from 小红书(xiao hong shu)</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H41" t="n">
         <v>21.00737100737101</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I41" t="n">
         <v>18.3046683046683</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>2.702702702702703</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L41" t="n">
         <v>1.842751842751843</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-12-26</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7452393382711741718</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B42" t="n">
         <v>1069</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C42" t="n">
         <v>94</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D42" t="n">
         <v>27</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>8</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>My ride or die, this is literally what a ✨glitter✨ highlighter means💖
 Product name: Judydoll- Shimmery highlighting powder 05 silver light</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H42" t="n">
         <v>11.31898971000935</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I42" t="n">
         <v>8.793264733395697</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>2.525724976613658</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L42" t="n">
         <v>0.7483629560336763</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-12-26</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7452030628305833218</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B43" t="n">
         <v>1644</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C43" t="n">
         <v>120</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D43" t="n">
         <v>15</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>14</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Japanese haircare is something else. My hair is so smooth and shiny after using this &amp;honey melty moist repair oil🍯🌸. This is perfect for high porosity types or damage hair ✨</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H43" t="n">
         <v>8.211678832116789</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I43" t="n">
         <v>7.2992700729927</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.9124087591240875</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L43" t="n">
         <v>0.851581508515815</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-12-25</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7451614269491170582</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B44" t="n">
         <v>4381</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C44" t="n">
         <v>163</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D44" t="n">
         <v>45</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>21</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>When they say toners are just water they didn’t try this one. This is my holy grail, my skin feels is so calm and hydrated 🙏🏻🙏🏻</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H44" t="n">
         <v>4.747774480712167</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I44" t="n">
         <v>3.720611732481169</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>1.027162748230998</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L44" t="n">
         <v>0.4793426158411321</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-12-23</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/photo/7451208120363207958</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B45" t="n">
         <v>7728</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C45" t="n">
         <v>390</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D45" t="n">
         <v>34</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>47</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>✨Rating the viral cleansing duo from Skin1004✨
 I will be honest with you at first I didn’t like the cleansing oil at all, it broke me out and give me little bumps all over my face. After learning how to use an oil cleanser correctly I give this another chance and it was totally worth it ;). About the foam version I like it a lot. It’s very gentle and doesn’t dry out the skin. This duo is now my favourite and I use it all the time🫶🏼.</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H45" t="n">
         <v>5.486542443064183</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I45" t="n">
         <v>5.046583850931677</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.4399585921325052</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L45" t="n">
         <v>0.6081780538302277</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-12-22</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7450443295676812566</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B46" t="n">
         <v>1117</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C46" t="n">
         <v>136</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D46" t="n">
         <v>16</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>14</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>✨Rating the viral cleansing duo from Skin1004✨
 I will be honest with you at first I didn’t like the cleansing oil at all, it broke me out and give me little bumps all over my face. After learning how to use an oil cleanser correctly I give this another chance and it was totally worth it ;). About the foam version I like it a lot. It’s very gentle and doesn’t dry out the skin. This duo is now my favourite and I use it all the time🫶🏼.</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H46" t="n">
         <v>13.60787824529991</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I46" t="n">
         <v>12.17547000895255</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>1.432408236347359</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L46" t="n">
         <v>1.253357206803939</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-12-20</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7450163188366134550</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B47" t="n">
         <v>982</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C47" t="n">
         <v>86</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D47" t="n">
         <v>11</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>12</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>New yesstyle codes for this week🫶🏼❤️. No minum spend required so it’s your time to buy your kbeauty wish list🤭🤭</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H47" t="n">
         <v>9.877800407331975</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I47" t="n">
         <v>8.757637474541752</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>1.120162932790224</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L47" t="n">
         <v>1.221995926680244</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-12-20</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7449744423237307670</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B48" t="n">
         <v>1538</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C48" t="n">
         <v>99</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D48" t="n">
         <v>30</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>15</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>This contour palette is everything😍
 Name: Judydoll- Highlight&amp;contour palette
 ⌞yesstyle code: STRAFIRE26⌝</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H48" t="n">
         <v>8.387516254876463</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I48" t="n">
         <v>6.436931079323798</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>1.950585175552666</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L48" t="n">
         <v>0.975292587776333</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7449017060694199574</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B49" t="n">
         <v>1287</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C49" t="n">
         <v>168</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D49" t="n">
         <v>43</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>11</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Dasique- Blending mood cheek shade: Violet knit 💜🧶
 ✨Yesstyle code: STRAFIRE26
 ✨Olive Young code: STARFIRE26</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H49" t="n">
         <v>16.39471639471639</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I49" t="n">
         <v>13.05361305361305</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>3.341103341103341</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L49" t="n">
         <v>0.8547008547008548</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7446418327452323095</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B50" t="n">
         <v>1522</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C50" t="n">
         <v>126</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D50" t="n">
         <v>47</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>15</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Romand juicy lasting tint- 22 pomelo skin😋🍈
 ⌞Yesstyle code: STRAFIRE26 Olive Young code: STARFIRE26⌝</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H50" t="n">
         <v>11.36662286465177</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I50" t="n">
         <v>8.278580814717477</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>3.088042049934297</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L50" t="n">
         <v>0.985545335085414</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-12-9</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_strvrfire_/video/7445612371093048598</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B51" t="n">
         <v>959</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C51" t="n">
         <v>158</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D51" t="n">
         <v>38</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>11</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Yesstyle haul since the black friday deals were too good😅💕. Use my code ‘STRAFIRE26’ while shopping at Yesstyle ᯓᡣ𐭩</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H51" t="n">
         <v>20.43795620437956</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I51" t="n">
         <v>16.4754953076121</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>3.962460896767466</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L51" t="n">
         <v>1.147028154327424</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-12-7</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_strvrfire_/video/7444571359063198998</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>622</v>
-      </c>
-      <c r="C49" t="n">
-        <v>128</v>
-      </c>
-      <c r="D49" t="n">
-        <v>47</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>13</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>The only remover that really remove my waterproof mascara without ripping them off. Product: Speedy Mascara remover</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>28.13504823151126</v>
-      </c>
-      <c r="I49" t="n">
-        <v>20.57877813504823</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>7.556270096463022</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.090032154340836</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-12-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_strvrfire_/photo/7443776629584776470</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>415</v>
-      </c>
-      <c r="C50" t="n">
-        <v>79</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Big bang sale at Olive Young!! These are my must-have kbeauty picks💞. What’s on your wishlist?🤭
-Use my Olive young code ‘STARFIRE26’ at checkout for more discount🩷</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>19.51807228915663</v>
-      </c>
-      <c r="I50" t="n">
-        <v>19.03614457831325</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.4819277108433735</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.168674698795181</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-12-2</t>
         </is>
       </c>
     </row>
